--- a/川师大电费截图/川师大4户电费.xlsx
+++ b/川师大电费截图/川师大4户电费.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0B8C34A4-EDC6-4EC6-8C0C-70E2162F160C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D5A69C9-C761-47B9-94C1-712938B62388}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>住户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>2511B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,23 +163,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,7 +470,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -478,95 +480,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -598,7 +600,7 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2">
         <v>100</v>
       </c>
@@ -628,7 +630,7 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2">
         <v>220</v>
       </c>
@@ -658,7 +660,7 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -688,7 +690,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3">
@@ -720,7 +722,7 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="4">
         <v>30</v>
       </c>
@@ -750,7 +752,7 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4">
         <v>1764</v>
       </c>
@@ -780,7 +782,7 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4">
         <v>0</v>
       </c>
@@ -810,11 +812,11 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
+      <c r="B12" s="14">
+        <v>43344</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -842,8 +844,10 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="6">
+        <v>100</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -870,8 +874,10 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="6">
+        <v>2037</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -898,8 +904,10 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -926,7 +934,7 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3">
@@ -958,7 +966,7 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4">
         <v>100</v>
       </c>
@@ -988,7 +996,7 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -1018,7 +1026,7 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4">
         <v>0</v>
       </c>
@@ -1048,31 +1056,31 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11">
-        <v>230</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9">
+        <v>330</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -1080,10 +1088,10 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="A21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="10">
         <v>0</v>
       </c>
       <c r="C21" s="5"/>
@@ -1112,10 +1120,9 @@
       <c r="Z21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:Z3"/>
-    <mergeCell ref="B12:B15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>

--- a/川师大电费截图/川师大4户电费.xlsx
+++ b/川师大电费截图/川师大4户电费.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D5A69C9-C761-47B9-94C1-712938B62388}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE736A87-DC11-422C-9705-C4031F865238}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>住户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,15 +42,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间(年/月/日) | 缴费(元) | 初度数(度) | 用电数(度)</t>
+    <t>无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已交电费(元)</t>
+    <t>电单价(元/度)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电单价(度/元)</t>
+    <t>电表押金(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13(搬走，余17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15(买下17，取走2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(年/月/日) | 缴费(元) | 初度数(度) | 用电数(度)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,11 +153,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -160,31 +209,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,112 +530,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>43328</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>43344</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -600,11 +664,13 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -630,11 +696,13 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>220</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2">
+        <v>323</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -660,11 +728,13 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2">
+        <v>103</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -690,13 +760,15 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3">
         <v>43328</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3">
+        <v>43344</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -722,11 +794,13 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4">
         <v>30</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -752,11 +826,13 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4">
         <v>1764</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4">
+        <v>1856</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -782,11 +858,13 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4">
         <v>0</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="4">
+        <v>92</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -812,13 +890,15 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10">
         <v>43344</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -844,11 +924,11 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6">
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="11">
         <v>100</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -874,11 +954,11 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="11">
         <v>2037</v>
       </c>
-      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -904,11 +984,11 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -934,13 +1014,15 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3">
         <v>43328</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="3">
+        <v>43344</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -966,11 +1048,13 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4">
         <v>100</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -996,11 +1080,13 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="4">
         <v>14</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="12">
+        <v>115</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1026,11 +1112,13 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4">
         <v>0</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="12">
+        <v>101</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1056,31 +1144,33 @@
       <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="9">
-        <v>330</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="8">
+        <v>230</v>
+      </c>
+      <c r="C20" s="8">
+        <v>300</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -1088,13 +1178,15 @@
       <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="A21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9">
         <v>0</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="9">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1120,13 +1212,14 @@
       <c r="Z21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:Z3"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/川师大电费截图/川师大4户电费.xlsx
+++ b/川师大电费截图/川师大4户电费.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE736A87-DC11-422C-9705-C4031F865238}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC9B5B-A666-4F16-860E-5EF2C6878D7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>住户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>时间(年/月/日) | 缴费(元) | 初度数(度) | 用电数(度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +237,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,6 +254,18 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Z3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,98 +558,100 @@
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -639,8 +660,12 @@
       <c r="C4" s="1">
         <v>43344</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43398</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
@@ -664,15 +689,17 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="23">
+        <v>93</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
@@ -696,15 +723,17 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2">
         <v>220</v>
       </c>
       <c r="C6" s="2">
         <v>323</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="23">
+        <v>513</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
@@ -728,15 +757,17 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>103</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="23">
+        <v>190</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -760,7 +791,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3">
@@ -769,8 +800,12 @@
       <c r="C8" s="3">
         <v>43344</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="3">
+        <v>43364</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43398</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
@@ -794,15 +829,19 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4">
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="12">
+        <v>50</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
@@ -826,15 +865,19 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4">
         <v>1764</v>
       </c>
       <c r="C10" s="4">
         <v>1856</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="4">
+        <v>1915</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2019</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="4"/>
@@ -858,15 +901,19 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="C11" s="4">
         <v>92</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>104</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
@@ -890,17 +937,21 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="10">
         <v>43344</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43398</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -924,13 +975,15 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="11">
         <v>100</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="23">
+        <v>120</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
@@ -954,13 +1007,15 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="11">
         <v>2037</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23">
+        <v>2282</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
@@ -984,13 +1039,15 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="23">
+        <v>245</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
@@ -1014,7 +1071,7 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3">
@@ -1023,8 +1080,12 @@
       <c r="C16" s="3">
         <v>43344</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43398</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="4"/>
@@ -1048,15 +1109,17 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4">
         <v>100</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="12">
+        <v>117</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="4"/>
@@ -1080,15 +1143,17 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="12">
         <v>115</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="12">
+        <v>351</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
@@ -1112,15 +1177,17 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="4">
         <v>0</v>
       </c>
       <c r="C19" s="12">
         <v>101</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="12">
+        <v>236</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
@@ -1153,8 +1220,12 @@
       <c r="C20" s="8">
         <v>300</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="8">
+        <v>400</v>
+      </c>
+      <c r="E20" s="8">
+        <v>400</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -1187,8 +1258,12 @@
       <c r="C21" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.5</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1212,7 +1287,7 @@
       <c r="Z21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:Z3"/>
     <mergeCell ref="A16:A19"/>
@@ -1220,6 +1295,9 @@
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/川师大电费截图/川师大4户电费.xlsx
+++ b/川师大电费截图/川师大4户电费.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC9B5B-A666-4F16-860E-5EF2C6878D7D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14DF310-E538-4CAC-9B55-E996F8E12F6E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>住户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>无变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当次用电总数（度）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,6 +238,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,9 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,111 +551,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -660,13 +665,15 @@
       <c r="C4" s="1">
         <v>43344</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>43398</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>43424</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -689,18 +696,20 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2">
         <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="23">
+      <c r="D5" s="19"/>
+      <c r="E5" s="13">
         <v>93</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="13">
+        <v>33</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -723,18 +732,20 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2">
-        <v>220</v>
+        <v>2220</v>
       </c>
       <c r="C6" s="2">
-        <v>323</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="23">
-        <v>513</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>2323</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="13">
+        <v>2513</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2570</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -757,18 +768,20 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>103</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="23">
+      <c r="D7" s="20"/>
+      <c r="E7" s="13">
         <v>190</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="13">
+        <v>57</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -791,7 +804,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3">
@@ -806,7 +819,9 @@
       <c r="E8" s="3">
         <v>43398</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="3">
+        <v>43424</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -829,7 +844,7 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4">
         <v>30</v>
       </c>
@@ -842,7 +857,9 @@
       <c r="E9" s="12">
         <v>50</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="12">
+        <v>63</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -865,7 +882,7 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4">
         <v>1764</v>
       </c>
@@ -878,7 +895,9 @@
       <c r="E10" s="12">
         <v>2019</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="12">
+        <v>2129</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -901,7 +920,7 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4">
         <v>0</v>
       </c>
@@ -914,7 +933,9 @@
       <c r="E11" s="12">
         <v>104</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="12">
+        <v>110</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -937,22 +958,24 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="10">
         <v>43344</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1">
         <v>43398</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>43424</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -975,16 +998,18 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="11">
         <v>100</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="23">
+      <c r="D13" s="19"/>
+      <c r="E13" s="13">
         <v>120</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="13">
+        <v>178</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1007,16 +1032,18 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="11">
         <v>2037</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="23">
+      <c r="D14" s="19"/>
+      <c r="E14" s="13">
         <v>2282</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="13">
+        <v>2590</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1039,16 +1066,18 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="23">
+      <c r="D15" s="20"/>
+      <c r="E15" s="13">
         <v>245</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="13">
+        <v>308</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1071,7 +1100,7 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3">
@@ -1080,13 +1109,15 @@
       <c r="C16" s="3">
         <v>43344</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3">
         <v>43398</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="3">
+        <v>43424</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1109,18 +1140,20 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4">
         <v>100</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="12">
         <v>117</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="12">
+        <v>86</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1143,18 +1176,20 @@
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="4">
         <v>14</v>
       </c>
       <c r="C18" s="12">
         <v>115</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="12">
         <v>351</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="12">
+        <v>498</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1177,18 +1212,20 @@
       <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4">
         <v>0</v>
       </c>
       <c r="C19" s="12">
         <v>101</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="12">
         <v>236</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="12">
+        <v>147</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1264,7 +1301,9 @@
       <c r="E21" s="8">
         <v>0.5</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="8">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1286,6 +1325,26 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>296</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>775</v>
+      </c>
+      <c r="F22" s="8">
+        <v>622</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:A3"/>

--- a/川师大电费截图/川师大4户电费.xlsx
+++ b/川师大电费截图/川师大4户电费.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14DF310-E538-4CAC-9B55-E996F8E12F6E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB6013-0E4A-42F9-8964-873C8889D182}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>住户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>当次用电总数（度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20（搬走，取80）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +558,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -565,6 +569,7 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -674,7 +679,9 @@
       <c r="F4" s="1">
         <v>43424</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>43439</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -710,7 +717,9 @@
       <c r="F5" s="13">
         <v>33</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -746,7 +755,9 @@
       <c r="F6" s="13">
         <v>2570</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="13">
+        <v>2606</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -782,7 +793,9 @@
       <c r="F7" s="13">
         <v>57</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="13">
+        <v>36</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -822,7 +835,9 @@
       <c r="F8" s="3">
         <v>43424</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="3">
+        <v>43439</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -860,7 +875,9 @@
       <c r="F9" s="12">
         <v>63</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="12">
+        <v>50</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -898,7 +915,9 @@
       <c r="F10" s="12">
         <v>2129</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="12">
+        <v>2220</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -936,7 +955,9 @@
       <c r="F11" s="12">
         <v>110</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="12">
+        <v>91</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -976,7 +997,9 @@
       <c r="F12" s="1">
         <v>43424</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>43439</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1010,7 +1033,9 @@
       <c r="F13" s="13">
         <v>178</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="13">
+        <v>83</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1044,7 +1069,9 @@
       <c r="F14" s="13">
         <v>2590</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="13">
+        <v>2740</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1078,7 +1105,9 @@
       <c r="F15" s="13">
         <v>308</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="13">
+        <v>150</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1118,7 +1147,9 @@
       <c r="F16" s="3">
         <v>43424</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="3">
+        <v>43439</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1154,7 +1185,9 @@
       <c r="F17" s="12">
         <v>86</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="12">
+        <v>48</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1190,7 +1223,9 @@
       <c r="F18" s="12">
         <v>498</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="12">
+        <v>585</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1226,7 +1261,9 @@
       <c r="F19" s="12">
         <v>147</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="12">
+        <v>87</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1263,8 +1300,12 @@
       <c r="E20" s="8">
         <v>400</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="8">
+        <v>400</v>
+      </c>
+      <c r="G20" s="8">
+        <v>300</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1304,7 +1345,9 @@
       <c r="F21" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="8">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1344,6 +1387,16 @@
       <c r="F22" s="8">
         <v>622</v>
       </c>
+      <c r="G22" s="8">
+        <v>364</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/川师大电费截图/川师大4户电费.xlsx
+++ b/川师大电费截图/川师大4户电费.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB6013-0E4A-42F9-8964-873C8889D182}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191DDC79-4123-47BB-9652-FC3403CB5FBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>住户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>20（搬走，取80）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +562,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -570,6 +574,7 @@
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -682,7 +687,9 @@
       <c r="G4" s="1">
         <v>43439</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -720,7 +727,7 @@
       <c r="G5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -758,7 +765,7 @@
       <c r="G6" s="13">
         <v>2606</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -796,7 +803,7 @@
       <c r="G7" s="13">
         <v>36</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -838,7 +845,9 @@
       <c r="G8" s="3">
         <v>43439</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3">
+        <v>43450</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -878,7 +887,9 @@
       <c r="G9" s="12">
         <v>50</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>30</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -918,7 +929,9 @@
       <c r="G10" s="12">
         <v>2220</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>2260</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -958,7 +971,9 @@
       <c r="G11" s="12">
         <v>91</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>40</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1000,7 +1015,9 @@
       <c r="G12" s="1">
         <v>43439</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1">
+        <v>43450</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1036,7 +1053,9 @@
       <c r="G13" s="13">
         <v>83</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>174</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1072,7 +1091,9 @@
       <c r="G14" s="13">
         <v>2740</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>2969</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1108,7 +1129,9 @@
       <c r="G15" s="13">
         <v>150</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>229</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1150,7 +1173,9 @@
       <c r="G16" s="3">
         <v>43439</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="3">
+        <v>43450</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -1188,7 +1213,9 @@
       <c r="G17" s="12">
         <v>48</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="4">
+        <v>56</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1226,7 +1253,9 @@
       <c r="G18" s="12">
         <v>585</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4">
+        <v>659</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1264,7 +1293,9 @@
       <c r="G19" s="12">
         <v>87</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4">
+        <v>74</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1306,7 +1337,9 @@
       <c r="G20" s="8">
         <v>300</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="8">
+        <v>300</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -1348,7 +1381,9 @@
       <c r="G21" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="8">
+        <v>0.76</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1390,7 +1425,9 @@
       <c r="G22" s="8">
         <v>364</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="8">
+        <v>343</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1399,7 +1436,7 @@
       <c r="N22" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:Z3"/>
     <mergeCell ref="A16:A19"/>
@@ -1410,6 +1447,7 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D16:D19"/>
+    <mergeCell ref="H4:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/川师大电费截图/川师大4户电费.xlsx
+++ b/川师大电费截图/川师大4户电费.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191DDC79-4123-47BB-9652-FC3403CB5FBD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3A7270-8E51-493B-AF7E-87AD21BA7376}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>住户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>无人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183-100=83</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +566,7 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -574,7 +578,8 @@
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -690,7 +695,9 @@
       <c r="H4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -728,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="19"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -766,7 +773,7 @@
         <v>2606</v>
       </c>
       <c r="H6" s="19"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -804,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -848,7 +855,9 @@
       <c r="H8" s="3">
         <v>43450</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="3">
+        <v>43468</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -890,7 +899,9 @@
       <c r="H9" s="4">
         <v>30</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>42</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -932,7 +943,9 @@
       <c r="H10" s="4">
         <v>2260</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <v>2328</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -974,7 +987,9 @@
       <c r="H11" s="4">
         <v>40</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4">
+        <v>68</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1018,7 +1033,9 @@
       <c r="H12" s="1">
         <v>43450</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="1">
+        <v>43468</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1056,7 +1073,9 @@
       <c r="H13" s="2">
         <v>174</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1094,7 +1113,9 @@
       <c r="H14" s="2">
         <v>2969</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>3261</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1132,7 +1153,9 @@
       <c r="H15" s="2">
         <v>229</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <v>292</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1176,7 +1199,9 @@
       <c r="H16" s="3">
         <v>43450</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="3">
+        <v>43468</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1216,7 +1241,9 @@
       <c r="H17" s="4">
         <v>56</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4">
+        <v>65</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -1256,7 +1283,9 @@
       <c r="H18" s="4">
         <v>659</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4">
+        <v>762</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -1296,7 +1325,9 @@
       <c r="H19" s="4">
         <v>74</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4">
+        <v>103</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1340,7 +1371,9 @@
       <c r="H20" s="8">
         <v>300</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="8">
+        <v>200</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1384,7 +1417,9 @@
       <c r="H21" s="8">
         <v>0.76</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="8">
+        <v>0.63</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1428,7 +1463,9 @@
       <c r="H22" s="8">
         <v>343</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="8">
+        <v>463</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1436,7 +1473,7 @@
       <c r="N22" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:Z3"/>
     <mergeCell ref="A16:A19"/>
@@ -1448,6 +1485,7 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
